--- a/docs/画面項目定義書/admin_dashboard.xlsx
+++ b/docs/画面項目定義書/admin_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13D35B-957F-45FC-85C1-7D8790AD643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D10FF98-A4D2-4ECA-8D06-2CF99C09BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>日本工学院</t>
   </si>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ref</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>物理ノードボタン</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
@@ -193,81 +189,75 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>設定されたノード名</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CPU（円グラフ）</t>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メモリ（円グラフ）</t>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ストレージ（円グラフ）</t>
-    <rPh sb="6" eb="7">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>物理ノード画面に遷移する</t>
+    <t>物理ノードエンティティから取得して表示</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>物理ノードエンティティ</t>
     <rPh sb="0" eb="2">
       <t>ブツリ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>admin_dashboard</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ref(管理者サイドメニュー)</t>
+    <rPh sb="4" eb="7">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>物理ノードダッシュボード画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="15" eb="17">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>インスタンスタイプ画面に遷移する</t>
-    <rPh sb="9" eb="11">
+    <t>インスタンスタイプダッシュボード画面に遷移する</t>
+    <rPh sb="16" eb="18">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="19" eb="21">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>利用者管理画面に遷移する</t>
+    <t>利用者管理ダッシュボード画面に遷移する</t>
     <rPh sb="0" eb="3">
       <t>リヨウシャ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="15" eb="17">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>イメージ管理画面に遷移する</t>
-    <rPh sb="4" eb="8">
-      <t>カンリガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <t>イメージ管理ダッシュボード画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1224,20 +1214,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1238,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1257,7 +1247,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1266,7 +1256,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1275,7 +1265,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1288,9 +1278,9 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="15"/>
@@ -1299,7 +1289,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1308,7 +1298,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>10</v>
@@ -1341,12 +1331,12 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -1361,93 +1351,93 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>11</v>
@@ -1457,54 +1447,62 @@
         <v>30</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G16" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G17" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="13"/>
       <c r="C20" s="17"/>
@@ -1513,7 +1511,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="13"/>
       <c r="C21" s="17"/>
@@ -1522,7 +1520,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="13"/>
       <c r="C22" s="17"/>
@@ -1531,7 +1529,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1540,7 +1538,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1549,7 +1547,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1558,7 +1556,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1567,7 +1565,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1576,7 +1574,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1585,7 +1583,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
